--- a/biology/Botanique/Carex_davalliana/Carex_davalliana.xlsx
+++ b/biology/Botanique/Carex_davalliana/Carex_davalliana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laîche de Davall, Carex de Davall
 Carex davalliana, de noms communs Laîche de Davall ou Carex de Davall, est une espèce de plantes vivace de la famille des Cyperaceae et du genre Carex, endémique d'Europe.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) »[1]. Davalliana signifie « de Davall » en hommage à Edmund Davall.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Carex » vient « du latin carere, manquer : épi supérieur ordinairement mâle et manquant de graines ; ou du grec cairô, je coupe, ou bien encore carax, fossé : plantes souvent à feuilles coupantes et croissant dans les fossés (Coste) ». Davalliana signifie « de Davall » en hommage à Edmund Davall.
 </t>
         </is>
       </c>
@@ -545,12 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 10 à 35 cm, glabre, à souche fibreuse gazonnante ; la tige est dressée, filiforme, trigone, scabre ; les feuilles sont plus courtes que la tige, sétacées, rudes[2].
-Appareil reproducteur
-L'épillet est solitaire, terminal, multiflore, disque, parfois monoïque ; le mâle est linéaire-cylindracé, à écailles lancéolées ; l'épi femelle est oblong, à écailles roussâtres, ovales-aiguës, persistantes ; la bractée est triangulaire mucronée ; il y a deux stigmates ; les utricules sont à la fin très étalés ou réfléchis, bruns, oblongs-lancéolés (3 mm), plans-convexes, peu nervés, atténués en bec long dépassant l'écaille ; le fruit est un akène oblong, de plan convexe. La floraison a lieu d'avril à juillet[2].
-Confusions possibles
-La Laîche puce (Carex pulicaris) peut être confondue avec les formes monoïques de Carex davalliana, dont l'utricule est plus renflé à la base et non pédicellé[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 10 à 35 cm, glabre, à souche fibreuse gazonnante ; la tige est dressée, filiforme, trigone, scabre ; les feuilles sont plus courtes que la tige, sétacées, rudes.
 </t>
         </is>
       </c>
@@ -576,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce carex est caractéristique des marécages, tourbières et bordures de sources, jusqu'à une altitude de 2 500 mètres[4].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épillet est solitaire, terminal, multiflore, disque, parfois monoïque ; le mâle est linéaire-cylindracé, à écailles lancéolées ; l'épi femelle est oblong, à écailles roussâtres, ovales-aiguës, persistantes ; la bractée est triangulaire mucronée ; il y a deux stigmates ; les utricules sont à la fin très étalés ou réfléchis, bruns, oblongs-lancéolés (3 mm), plans-convexes, peu nervés, atténués en bec long dépassant l'écaille ; le fruit est un akène oblong, de plan convexe. La floraison a lieu d'avril à juillet.
 </t>
         </is>
       </c>
@@ -607,12 +628,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Laîche de Davall est originaire d'Europe, surtout centrale.
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laîche puce (Carex pulicaris) peut être confondue avec les formes monoïques de Carex davalliana, dont l'utricule est plus renflé à la base et non pédicellé.
 </t>
         </is>
       </c>
@@ -638,12 +665,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce en « préoccupation mineure » (LC) aux niveaux mondial et français ; cependant, elle est « en danger critique d'extinction » (CR) en Pays de la Loire et Picardie, et « en danger » (EN) en Alsace et en Lorraine[5].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce carex est caractéristique des marécages, tourbières et bordures de sources, jusqu'à une altitude de 2 500 mètres.
 </t>
         </is>
       </c>
@@ -669,12 +698,80 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Laîche de Davall est originaire d'Europe, surtout centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Carex_davalliana</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_davalliana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce en « préoccupation mineure » (LC) aux niveaux mondial et français ; cependant, elle est « en danger critique d'extinction » (CR) en Pays de la Loire et Picardie, et « en danger » (EN) en Alsace et en Lorraine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Carex_davalliana</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carex_davalliana</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Carex curvula Willd. ex Kunth, pro syn. (synonyme ambigu)
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carex curvula Willd. ex Kunth, pro syn. (synonyme ambigu)
 Carex davalliana var. androgyna Döll
 Carex davalliana f. sieberiana (Opiz) Bolzon
 Carex davalliana subsp. sieberiana (Opiz) K.Richt.
@@ -693,7 +790,7 @@
 Maukschia scabra (Hoppe) Heuff.
 Psyllophora davalliana (Sm.) Schur
 Psyllophora sieberiana (Opiz) Opiz
-Vignea davalliana (Sm.) Rchb. [6]</t>
+Vignea davalliana (Sm.) Rchb. </t>
         </is>
       </c>
     </row>
